--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_16_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_16_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>796998.0704975523</v>
+        <v>834469.2568431131</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6542240.186367737</v>
+        <v>6542240.186367738</v>
       </c>
     </row>
     <row r="9">
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>232.2791855053265</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>232.2791855053266</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>89.2355469633636</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -749,13 +749,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>31.97883571613821</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>175.3455350572534</v>
       </c>
       <c r="Y4" t="n">
-        <v>64.02344200106739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>209.850052822667</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>327.5864630348631</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.1815018398514</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>152.9453208892197</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,10 +983,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.7271976526644</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.74703566813373</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>69.75875871029592</v>
       </c>
       <c r="T6" t="n">
         <v>193.6498268080145</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8350452710705</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1040,10 +1040,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>73.62243671263781</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
         <v>150.1793862679149</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.699885070052</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887348</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4014587515235</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1557535054015</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>195.8715001281599</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>47.3165512647554</v>
+        <v>371.6713678636121</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,19 +1293,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>44.53677382548308</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>94.69890132640529</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>195.5504310656885</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>248.2949166645746</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>114.4746605491558</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>32.52207646038699</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1612,16 +1612,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>241.8544689997846</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>286.79430053648</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>32.69569941357408</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1779,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.472338733543</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,7 +1824,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>357.8652472346035</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>129.6633107558682</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>17.04003555159892</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2061,16 +2061,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>223.3736912549803</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>364.991446712561</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>329.348982972662</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>11.16818915334127</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>221.5979551933723</v>
       </c>
       <c r="G23" t="n">
-        <v>42.78734947751052</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>71.7919371191807</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>181.1375494785993</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2560,13 +2560,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>58.9981833721813</v>
+        <v>305.9840058034979</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>18.26879610204006</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2769,7 +2769,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>181.1375494785993</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>375.5647886747534</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2857,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>336.4498927555049</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2952,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>181.1375494785993</v>
+        <v>130.3899231758519</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>142.9711221467184</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>196.1087930877692</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>88.74375972809777</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>122.2718271853748</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>238.7813195717458</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>271.2903285220046</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.50187133648316</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>7.601081015447462</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>218.8546041744723</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>126.5388824951718</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247628</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>229.3597984239699</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>74.7572422460772</v>
       </c>
     </row>
     <row r="41">
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>335.314719238163</v>
+        <v>271.8036819298777</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>89.85962794794658</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>80.65393294142498</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3982,10 +3982,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>57.76599230790769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>270.8352357940379</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>113.5103646250813</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>209.5675193320716</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1054.855520006025</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C2" t="n">
-        <v>1054.855520006025</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D2" t="n">
-        <v>1054.855520006025</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E2" t="n">
-        <v>788.4778634388466</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F2" t="n">
-        <v>553.8524235344764</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672984</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030608</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4366,16 +4366,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>820.2300801016545</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>337.3302090828938</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>337.3302090828938</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>337.3302090828938</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>337.3302090828938</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>190.7956511097787</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>53.39896465884596</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>100.9913896951734</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>247.73581335547</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>438.3365024519937</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>648.3904695545987</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560897</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>826.7196740428381</v>
+        <v>808.3837902496284</v>
       </c>
       <c r="V3" t="n">
-        <v>591.5675658110954</v>
+        <v>573.2316820178858</v>
       </c>
       <c r="W3" t="n">
-        <v>337.3302090828938</v>
+        <v>318.9943252896841</v>
       </c>
       <c r="X3" t="n">
-        <v>337.3302090828938</v>
+        <v>318.9943252896841</v>
       </c>
       <c r="Y3" t="n">
-        <v>337.3302090828938</v>
+        <v>111.2340265247302</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
@@ -4497,13 +4497,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="U4" t="n">
-        <v>788.4778634388466</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="V4" t="n">
-        <v>533.7933752329598</v>
+        <v>464.5914690453322</v>
       </c>
       <c r="W4" t="n">
-        <v>267.4157186657818</v>
+        <v>198.2138124781542</v>
       </c>
       <c r="X4" t="n">
-        <v>267.4157186657818</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.7455752303602</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>245.8351867172835</v>
+        <v>1161.535010986142</v>
       </c>
       <c r="C5" t="n">
-        <v>245.8351867172835</v>
+        <v>1161.535010986142</v>
       </c>
       <c r="D5" t="n">
-        <v>33.8654363913572</v>
+        <v>1161.535010986142</v>
       </c>
       <c r="E5" t="n">
-        <v>33.8654363913572</v>
+        <v>775.7467583878972</v>
       </c>
       <c r="F5" t="n">
-        <v>33.8654363913572</v>
+        <v>364.7608535982897</v>
       </c>
       <c r="G5" t="n">
-        <v>33.8654363913572</v>
+        <v>33.86543639135728</v>
       </c>
       <c r="H5" t="n">
-        <v>33.8654363913572</v>
+        <v>33.86543639135728</v>
       </c>
       <c r="I5" t="n">
-        <v>33.8654363913572</v>
+        <v>33.86543639135728</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780269</v>
+        <v>108.4604468780275</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818677</v>
+        <v>270.9975490818686</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373961</v>
+        <v>509.5409587373974</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176448</v>
+        <v>806.6359018176468</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058965</v>
+        <v>1113.151960058968</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836692</v>
+        <v>1389.251120836695</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921682</v>
+        <v>1590.394365921686</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.27181956786</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.27181956786</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="S5" t="n">
-        <v>1693.27181956786</v>
+        <v>1551.674342961953</v>
       </c>
       <c r="T5" t="n">
-        <v>1693.27181956786</v>
+        <v>1551.674342961953</v>
       </c>
       <c r="U5" t="n">
-        <v>1693.27181956786</v>
+        <v>1551.674342961953</v>
       </c>
       <c r="V5" t="n">
-        <v>1362.208932224289</v>
+        <v>1551.674342961953</v>
       </c>
       <c r="W5" t="n">
-        <v>1009.440276954175</v>
+        <v>1551.674342961953</v>
       </c>
       <c r="X5" t="n">
-        <v>635.9745186930952</v>
+        <v>1551.674342961953</v>
       </c>
       <c r="Y5" t="n">
-        <v>245.8351867172835</v>
+        <v>1161.535010986142</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>625.6700384783148</v>
+        <v>353.985940316041</v>
       </c>
       <c r="C6" t="n">
-        <v>625.6700384783148</v>
+        <v>353.985940316041</v>
       </c>
       <c r="D6" t="n">
-        <v>476.7356288170635</v>
+        <v>205.0515306547897</v>
       </c>
       <c r="E6" t="n">
-        <v>317.498173811608</v>
+        <v>205.0515306547897</v>
       </c>
       <c r="F6" t="n">
-        <v>170.963615838493</v>
+        <v>205.0515306547897</v>
       </c>
       <c r="G6" t="n">
-        <v>33.8654363913572</v>
+        <v>67.95335120765398</v>
       </c>
       <c r="H6" t="n">
-        <v>33.8654363913572</v>
+        <v>67.95335120765398</v>
       </c>
       <c r="I6" t="n">
-        <v>33.8654363913572</v>
+        <v>33.86543639135728</v>
       </c>
       <c r="J6" t="n">
-        <v>70.23016175876927</v>
+        <v>70.03636142348432</v>
       </c>
       <c r="K6" t="n">
-        <v>453.9778756130269</v>
+        <v>453.7840752777422</v>
       </c>
       <c r="L6" t="n">
-        <v>664.2464887357612</v>
+        <v>664.0526884004769</v>
       </c>
       <c r="M6" t="n">
-        <v>928.9769106925016</v>
+        <v>928.7831103572178</v>
       </c>
       <c r="N6" t="n">
-        <v>1215.122604104229</v>
+        <v>1214.928803768945</v>
       </c>
       <c r="O6" t="n">
-        <v>1454.670215278426</v>
+        <v>1454.476414943143</v>
       </c>
       <c r="P6" t="n">
-        <v>1627.595225892894</v>
+        <v>1627.401425557611</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.27181956786</v>
+        <v>1693.078019232577</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.27181956786</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="S6" t="n">
-        <v>1693.27181956786</v>
+        <v>1622.808426931201</v>
       </c>
       <c r="T6" t="n">
-        <v>1497.665933903199</v>
+        <v>1427.20254126654</v>
       </c>
       <c r="U6" t="n">
-        <v>1269.549726558683</v>
+        <v>1427.20254126654</v>
       </c>
       <c r="V6" t="n">
-        <v>1034.39761832694</v>
+        <v>1192.050433034797</v>
       </c>
       <c r="W6" t="n">
-        <v>780.1602615987388</v>
+        <v>937.8130763065958</v>
       </c>
       <c r="X6" t="n">
-        <v>780.1602615987388</v>
+        <v>729.961576101063</v>
       </c>
       <c r="Y6" t="n">
-        <v>780.1602615987388</v>
+        <v>522.2012773361091</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>501.3879165827451</v>
+        <v>690.9954035126138</v>
       </c>
       <c r="C7" t="n">
-        <v>332.4517336548382</v>
+        <v>690.9954035126138</v>
       </c>
       <c r="D7" t="n">
-        <v>332.4517336548382</v>
+        <v>690.9954035126138</v>
       </c>
       <c r="E7" t="n">
-        <v>332.4517336548382</v>
+        <v>616.6293058230807</v>
       </c>
       <c r="F7" t="n">
-        <v>185.5617861569278</v>
+        <v>469.7393583251704</v>
       </c>
       <c r="G7" t="n">
-        <v>185.5617861569278</v>
+        <v>301.4202559246571</v>
       </c>
       <c r="H7" t="n">
-        <v>33.8654363913572</v>
+        <v>149.7239061590865</v>
       </c>
       <c r="I7" t="n">
-        <v>33.8654363913572</v>
+        <v>33.86543639135728</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652168</v>
+        <v>36.28512133652185</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128592</v>
+        <v>170.0982437128596</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119578</v>
+        <v>396.8594047119584</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191526</v>
+        <v>646.3363778191533</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361639</v>
+        <v>895.3159625361648</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021379</v>
+        <v>1109.27261202138</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580464</v>
+        <v>1268.828805580466</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397012</v>
+        <v>1295.862163397014</v>
       </c>
       <c r="R7" t="n">
-        <v>1178.322155933643</v>
+        <v>1295.862163397014</v>
       </c>
       <c r="S7" t="n">
-        <v>1178.322155933643</v>
+        <v>1093.436447486384</v>
       </c>
       <c r="T7" t="n">
-        <v>953.9224049180864</v>
+        <v>1093.436447486384</v>
       </c>
       <c r="U7" t="n">
-        <v>953.9224049180864</v>
+        <v>1093.436447486384</v>
       </c>
       <c r="V7" t="n">
-        <v>699.2379167121995</v>
+        <v>1093.436447486384</v>
       </c>
       <c r="W7" t="n">
-        <v>699.2379167121995</v>
+        <v>1093.436447486384</v>
       </c>
       <c r="X7" t="n">
-        <v>699.2379167121995</v>
+        <v>1093.436447486384</v>
       </c>
       <c r="Y7" t="n">
-        <v>501.3879165827451</v>
+        <v>872.6438683428536</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>934.6665353554984</v>
+        <v>1195.92401406902</v>
       </c>
       <c r="C8" t="n">
-        <v>934.6665353554984</v>
+        <v>1195.92401406902</v>
       </c>
       <c r="D8" t="n">
-        <v>576.4008367487479</v>
+        <v>837.6583154622695</v>
       </c>
       <c r="E8" t="n">
-        <v>528.6063405217222</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="F8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4822,34 +4822,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="W8" t="n">
-        <v>2084.871465656512</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X8" t="n">
-        <v>1711.405707395432</v>
+        <v>1582.523854133142</v>
       </c>
       <c r="Y8" t="n">
-        <v>1321.26637541962</v>
+        <v>1582.523854133142</v>
       </c>
     </row>
     <row r="9">
@@ -4874,40 +4874,40 @@
         <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>158.589498651206</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>343.3111199322561</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>638.0146769637279</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M9" t="n">
-        <v>1001.276695922948</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>2102.578639884741</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>483.8248900728893</v>
+        <v>391.0364678760673</v>
       </c>
       <c r="C10" t="n">
-        <v>314.8887071449824</v>
+        <v>391.0364678760673</v>
       </c>
       <c r="D10" t="n">
-        <v>314.8887071449824</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>314.8887071449824</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
         <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V10" t="n">
-        <v>1114.255484944676</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="W10" t="n">
-        <v>1114.255484944676</v>
+        <v>1021.467062747854</v>
       </c>
       <c r="X10" t="n">
-        <v>886.2659340466591</v>
+        <v>793.4775118498371</v>
       </c>
       <c r="Y10" t="n">
-        <v>665.473354903129</v>
+        <v>572.684932706307</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1822.632236038044</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C11" t="n">
-        <v>1453.669719097632</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D11" t="n">
-        <v>1202.866772971799</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E11" t="n">
-        <v>817.078520373555</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F11" t="n">
-        <v>406.0926155839475</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052369</v>
@@ -5071,22 +5071,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W11" t="n">
-        <v>2972.837166339057</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X11" t="n">
-        <v>2599.371408077977</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="Y11" t="n">
-        <v>2209.232076102166</v>
+        <v>1792.126722677733</v>
       </c>
     </row>
     <row r="12">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>216.6287558445192</v>
+        <v>182.143086683856</v>
       </c>
       <c r="C13" t="n">
-        <v>216.6287558445192</v>
+        <v>182.143086683856</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218343</v>
+        <v>182.143086683856</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218343</v>
+        <v>182.143086683856</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218343</v>
+        <v>182.143086683856</v>
       </c>
       <c r="G13" t="n">
         <v>66.51211643218343</v>
@@ -5229,22 +5229,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U13" t="n">
-        <v>1391.161008959154</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V13" t="n">
-        <v>1136.476520753267</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W13" t="n">
-        <v>847.0593507163063</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X13" t="n">
-        <v>619.069799818289</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="Y13" t="n">
-        <v>398.2772206747588</v>
+        <v>363.7915515140957</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1519.109083729354</v>
+        <v>1845.410930903096</v>
       </c>
       <c r="C14" t="n">
-        <v>1150.146566788942</v>
+        <v>1476.448413962684</v>
       </c>
       <c r="D14" t="n">
-        <v>791.8808681821918</v>
+        <v>1476.448413962684</v>
       </c>
       <c r="E14" t="n">
-        <v>406.0926155839475</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
         <v>406.0926155839475</v>
@@ -5275,22 +5275,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5299,31 +5299,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.09759726723</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.034709923659</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W14" t="n">
-        <v>2182.266054653545</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X14" t="n">
-        <v>1808.800296392465</v>
+        <v>2235.550262878908</v>
       </c>
       <c r="Y14" t="n">
-        <v>1519.109083729354</v>
+        <v>1845.410930903096</v>
       </c>
     </row>
     <row r="15">
@@ -5333,70 +5333,70 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>690.674942710575</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="C16" t="n">
-        <v>657.6489837069648</v>
+        <v>676.5553714031489</v>
       </c>
       <c r="D16" t="n">
-        <v>507.5323442946291</v>
+        <v>526.4387319908132</v>
       </c>
       <c r="E16" t="n">
-        <v>359.619250712236</v>
+        <v>378.52563840842</v>
       </c>
       <c r="F16" t="n">
-        <v>212.7293032143257</v>
+        <v>231.6356909105097</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V16" t="n">
-        <v>1161.740577577775</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W16" t="n">
-        <v>872.3234075408147</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X16" t="n">
-        <v>872.3234075408147</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="Y16" t="n">
-        <v>872.3234075408147</v>
+        <v>845.4915543310558</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1232.150970528558</v>
+        <v>1998.10447029351</v>
       </c>
       <c r="C17" t="n">
-        <v>1232.150970528558</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>1232.150970528558</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5545,22 +5545,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2866.09759726723</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V17" t="n">
-        <v>2735.124556099686</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W17" t="n">
-        <v>2382.355900829572</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X17" t="n">
-        <v>2008.890142568492</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="Y17" t="n">
-        <v>1618.75081059268</v>
+        <v>1998.10447029351</v>
       </c>
     </row>
     <row r="18">
@@ -5570,70 +5570,70 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>234.2149530574645</v>
+        <v>717.3698800184446</v>
       </c>
       <c r="C19" t="n">
-        <v>234.2149530574645</v>
+        <v>548.4336970905377</v>
       </c>
       <c r="D19" t="n">
-        <v>234.2149530574645</v>
+        <v>398.317057678202</v>
       </c>
       <c r="E19" t="n">
-        <v>234.2149530574645</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5700,25 +5700,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V19" t="n">
-        <v>970.0546934046018</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W19" t="n">
-        <v>680.6375233676413</v>
+        <v>1127.007895746702</v>
       </c>
       <c r="X19" t="n">
-        <v>455.0075322009945</v>
+        <v>899.0183448486844</v>
       </c>
       <c r="Y19" t="n">
-        <v>234.2149530574645</v>
+        <v>899.0183448486844</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2047.583838282732</v>
+        <v>1887.813801820605</v>
       </c>
       <c r="C20" t="n">
-        <v>1678.62132134232</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.35562273557</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E20" t="n">
-        <v>934.5673701373257</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993395</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>3119.628073993395</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V20" t="n">
-        <v>3119.628073993395</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W20" t="n">
-        <v>2766.85941872328</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X20" t="n">
-        <v>2434.183678346854</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y20" t="n">
-        <v>2434.183678346854</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.189385922801</v>
@@ -5849,22 +5849,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>691.6489789975187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C22" t="n">
-        <v>522.7127960696118</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D22" t="n">
-        <v>372.5961566572761</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E22" t="n">
-        <v>224.683063074883</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F22" t="n">
-        <v>77.79311557697261</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5937,25 +5937,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V22" t="n">
-        <v>1383.507193008249</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W22" t="n">
-        <v>1094.090022971289</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X22" t="n">
-        <v>1094.090022971289</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y22" t="n">
-        <v>873.2974438277585</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1675.730933054507</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="C23" t="n">
-        <v>1306.768416114095</v>
+        <v>1789.055335321089</v>
       </c>
       <c r="D23" t="n">
-        <v>948.5027175073449</v>
+        <v>1430.789636714339</v>
       </c>
       <c r="E23" t="n">
-        <v>562.7144649091006</v>
+        <v>1045.001384116095</v>
       </c>
       <c r="F23" t="n">
-        <v>151.728560119493</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V23" t="n">
-        <v>2788.565186649823</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W23" t="n">
-        <v>2435.796531379709</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X23" t="n">
-        <v>2062.330773118629</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y23" t="n">
-        <v>2062.330773118629</v>
+        <v>2158.017852261501</v>
       </c>
     </row>
     <row r="24">
@@ -6059,22 +6059,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.51211643218343</v>
+        <v>453.6220087565674</v>
       </c>
       <c r="C25" t="n">
-        <v>66.51211643218343</v>
+        <v>453.6220087565674</v>
       </c>
       <c r="D25" t="n">
-        <v>66.51211643218343</v>
+        <v>453.6220087565674</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U25" t="n">
-        <v>1241.044369546818</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V25" t="n">
-        <v>986.3598813409312</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W25" t="n">
-        <v>696.9427113039706</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X25" t="n">
-        <v>468.9531604059532</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y25" t="n">
-        <v>248.1605812624231</v>
+        <v>453.6220087565674</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1363.124011696102</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="C26" t="n">
-        <v>994.1614947556907</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="D26" t="n">
-        <v>994.1614947556907</v>
+        <v>790.6593199240535</v>
       </c>
       <c r="E26" t="n">
-        <v>934.5673701373257</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F26" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912087</v>
@@ -6241,37 +6241,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>2866.09759726723</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V26" t="n">
-        <v>2866.09759726723</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W26" t="n">
-        <v>2513.328941997116</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X26" t="n">
-        <v>2139.863183736036</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y26" t="n">
-        <v>1749.723851760224</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="27">
@@ -6296,16 +6296,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.51211643218343</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C28" t="n">
-        <v>66.51211643218343</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218343</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218343</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218343</v>
+        <v>84.96544582818348</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U28" t="n">
-        <v>1241.044369546818</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V28" t="n">
-        <v>986.3598813409312</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W28" t="n">
-        <v>696.9427113039706</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X28" t="n">
-        <v>468.9531604059532</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y28" t="n">
-        <v>248.1605812624231</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1672.191441142817</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C29" t="n">
-        <v>1672.191441142817</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D29" t="n">
-        <v>1313.925742536067</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E29" t="n">
         <v>934.5673701373257</v>
@@ -6460,22 +6460,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
@@ -6484,7 +6484,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
@@ -6493,22 +6493,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>3119.628073993394</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V29" t="n">
-        <v>2788.565186649823</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W29" t="n">
-        <v>2435.796531379709</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X29" t="n">
-        <v>2062.330773118629</v>
+        <v>2048.39542574861</v>
       </c>
       <c r="Y29" t="n">
-        <v>1672.191441142817</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="30">
@@ -6533,22 +6533,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.51211643218343</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218343</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U31" t="n">
-        <v>1241.044369546818</v>
+        <v>1573.820939551098</v>
       </c>
       <c r="V31" t="n">
-        <v>986.3598813409312</v>
+        <v>1319.136451345211</v>
       </c>
       <c r="W31" t="n">
-        <v>696.9427113039706</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="X31" t="n">
-        <v>468.9531604059532</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y31" t="n">
-        <v>248.1605812624231</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1274.245689520978</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C32" t="n">
-        <v>905.2831725805665</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D32" t="n">
-        <v>905.2831725805665</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
-        <v>519.4949199823222</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>108.5090151927147</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912087</v>
@@ -6715,37 +6715,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993394</v>
+        <v>3017.22546314862</v>
       </c>
       <c r="U32" t="n">
-        <v>2866.09759726723</v>
+        <v>2763.694986422457</v>
       </c>
       <c r="V32" t="n">
-        <v>2535.034709923659</v>
+        <v>2763.694986422457</v>
       </c>
       <c r="W32" t="n">
-        <v>2182.266054653545</v>
+        <v>2410.926331152342</v>
       </c>
       <c r="X32" t="n">
-        <v>1808.800296392465</v>
+        <v>2037.460572891262</v>
       </c>
       <c r="Y32" t="n">
-        <v>1418.660964416653</v>
+        <v>1647.321240915451</v>
       </c>
     </row>
     <row r="33">
@@ -6770,22 +6770,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>403.1511359853714</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="C34" t="n">
-        <v>234.2149530574645</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D34" t="n">
-        <v>234.2149530574645</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E34" t="n">
-        <v>234.2149530574645</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574645</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U34" t="n">
-        <v>1446.505797040963</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V34" t="n">
-        <v>1322.998900894119</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W34" t="n">
-        <v>1033.581730857159</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X34" t="n">
-        <v>805.5921799591413</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y34" t="n">
-        <v>584.7996008156111</v>
+        <v>866.1004720732712</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1617.939223126803</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C35" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D35" t="n">
         <v>1617.939223126803</v>
@@ -6973,16 +6973,16 @@
         <v>3009.337405520489</v>
       </c>
       <c r="V35" t="n">
-        <v>2768.144153427816</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W35" t="n">
-        <v>2768.144153427816</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X35" t="n">
-        <v>2394.678395166736</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="Y35" t="n">
-        <v>2004.539063190924</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
         <v>618.1564155387305</v>
@@ -7004,46 +7004,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.5194080306463</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
         <v>2242.828302297192</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>241.8928126690276</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="C37" t="n">
-        <v>241.8928126690276</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D37" t="n">
-        <v>241.8928126690276</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E37" t="n">
-        <v>241.8928126690276</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H37" t="n">
         <v>66.51211643218343</v>
@@ -7137,10 +7137,10 @@
         <v>872.3234075408147</v>
       </c>
       <c r="X37" t="n">
-        <v>644.3338566427974</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y37" t="n">
-        <v>423.5412774992673</v>
+        <v>872.3234075408147</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2047.583838282732</v>
+        <v>1811.579746109089</v>
       </c>
       <c r="C38" t="n">
-        <v>1678.62132134232</v>
+        <v>1442.617229168677</v>
       </c>
       <c r="D38" t="n">
-        <v>1320.35562273557</v>
+        <v>1084.351530561926</v>
       </c>
       <c r="E38" t="n">
-        <v>934.5673701373257</v>
+        <v>698.5632779636821</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>287.5773731740746</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3197.788768583745</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3197.788768583745</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V38" t="n">
-        <v>3197.788768583745</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W38" t="n">
-        <v>3197.788768583745</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X38" t="n">
-        <v>2824.323010322666</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y38" t="n">
-        <v>2434.183678346854</v>
+        <v>2198.17958617321</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7271,34 +7271,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>500.4768131670261</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C40" t="n">
-        <v>331.5406302391191</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D40" t="n">
-        <v>331.5406302391191</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E40" t="n">
-        <v>331.5406302391191</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F40" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H40" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7353,31 +7353,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U40" t="n">
-        <v>1192.335027177757</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V40" t="n">
-        <v>1192.335027177757</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W40" t="n">
-        <v>902.9178571407959</v>
+        <v>1348.774511177176</v>
       </c>
       <c r="X40" t="n">
-        <v>902.9178571407959</v>
+        <v>1348.774511177176</v>
       </c>
       <c r="Y40" t="n">
-        <v>682.1252779972658</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1659.057359339775</v>
+        <v>1921.870414581994</v>
       </c>
       <c r="C41" t="n">
-        <v>1659.057359339775</v>
+        <v>1552.907897641582</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7441,22 +7441,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3119.628073993394</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V41" t="n">
-        <v>2788.565186649823</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W41" t="n">
-        <v>2435.796531379709</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="X41" t="n">
-        <v>2435.796531379709</v>
+        <v>2698.609586621927</v>
       </c>
       <c r="Y41" t="n">
-        <v>2045.657199403897</v>
+        <v>2308.470254646115</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D42" t="n">
         <v>618.1564155387305</v>
@@ -7478,7 +7478,7 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G42" t="n">
         <v>176.021302392778</v>
@@ -7487,37 +7487,37 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T42" t="n">
         <v>2242.828302297192</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>634.7363945304596</v>
+        <v>332.773976541745</v>
       </c>
       <c r="C43" t="n">
-        <v>465.8002116025527</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D43" t="n">
-        <v>315.683572190217</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E43" t="n">
-        <v>234.2149530574645</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7590,31 +7590,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T43" t="n">
-        <v>1615.697475415547</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U43" t="n">
-        <v>1326.59460854119</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>1326.59460854119</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W43" t="n">
-        <v>1037.177438504229</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X43" t="n">
-        <v>1037.177438504229</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="Y43" t="n">
-        <v>816.3848593606994</v>
+        <v>423.5412774992668</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1944.904841306683</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C44" t="n">
-        <v>1575.942324366272</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D44" t="n">
-        <v>1575.942324366272</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E44" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
@@ -7666,34 +7666,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3267.256334429467</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3061.278586813689</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U44" t="n">
-        <v>3061.278586813689</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V44" t="n">
-        <v>3061.278586813689</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W44" t="n">
-        <v>2708.509931543575</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X44" t="n">
-        <v>2335.044173282495</v>
+        <v>2051.9349176603</v>
       </c>
       <c r="Y44" t="n">
-        <v>1944.904841306683</v>
+        <v>1661.795585684488</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.51211643218343</v>
+        <v>181.169050396912</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
         <v>1617.076751502319</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.60866391532</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484846</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U46" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V46" t="n">
-        <v>970.0546934046023</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W46" t="n">
-        <v>680.6375233676417</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X46" t="n">
-        <v>468.9531604059532</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y46" t="n">
-        <v>248.1605812624231</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418294</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>5.262887399594717</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167812</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157982</v>
+        <v>25.82445471157962</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>10.86292434901539</v>
+        <v>10.66716643458591</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.32591189689003</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>45.44676101130771</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8543,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.160150103916</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>73.66059580999848</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.161737372967764e-12</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -22555,16 +22555,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>174.596860236385</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -22606,16 +22606,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>95.47307296480832</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590681</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>77.29763668650374</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22637,16 +22637,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>67.50048455507155</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.1525249552777</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -22694,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22725,10 +22725,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888211</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117134</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>50.36412033178377</v>
       </c>
       <c r="Y4" t="n">
-        <v>154.5612113510274</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22789,22 +22789,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>144.832988798016</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2818458970816</v>
+        <v>84.69538286221848</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323769</v>
+        <v>308.5370958323768</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539886</v>
+        <v>94.01296546539875</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398515</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>209.8718965061022</v>
@@ -22843,13 +22843,13 @@
         <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.58786276064765</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22871,19 +22871,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253653</v>
+        <v>96.62520054253652</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813378</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,13 +22913,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.6607451075071</v>
+        <v>71.90198639721115</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8350452710705</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22928,10 +22928,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>72.81152593393136</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6359113765081</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.699885070052</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.3646073887347</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515235</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1557535054015</v>
       </c>
       <c r="U7" t="n">
         <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23010,7 +23010,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.71315322393491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23029,7 +23029,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>334.6138188075064</v>
+        <v>10.25900220864963</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23181,19 +23181,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>104.0786991927293</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>50.72214669652595</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -23229,7 +23229,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>187.1834105977921</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>106.3881249561084</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>51.55114770987244</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>253.6897617452259</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23500,16 +23500,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>140.0759010724772</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>99.44363811957356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>134.5511216850538</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>2.553469525485241</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>7.407644536404007</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>198.0889477142667</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>129.3939270949703</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>2.335964134056894</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.2814450584465362</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>40.38211770580699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>154.857619105687</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24177,10 +24177,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>185.2780905483392</v>
       </c>
       <c r="G23" t="n">
-        <v>368.1343761759429</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>74.64202552738847</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24448,13 +24448,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>322.9321867000805</v>
+        <v>75.94636426876389</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>147.7570121569882</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>6.365581397508379</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>33.28120792296414</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>105.0742887270136</v>
+        <v>155.821915029761</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>239.7627195167622</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>7.809177051850924</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>78.50306137053006</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>129.8658161384532</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25213,13 +25213,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>88.97093889838911</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>98.44077215646439</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7449497621447</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>137.8199670074838</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>192.0671214789812</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>77.37908764444839</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>56.85203978164299</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>143.8274111060176</v>
       </c>
     </row>
     <row r="41">
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>19.36832238251998</v>
+        <v>82.8793596908053</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>89.97235223399072</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>65.78002970514419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25870,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>51.42176948026812</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,13 +25924,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>98.89586488443109</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>53.73645647354654</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>16.14213605696554</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>514033.3182394485</v>
+        <v>514033.3182394487</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>622472.8813792863</v>
+        <v>622472.881379287</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>768896.6821529667</v>
+        <v>768896.6821529669</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>845201.9959189531</v>
+        <v>845201.995918953</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>845201.9959189532</v>
+        <v>845201.9959189531</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>845201.9959189532</v>
+        <v>845201.995918953</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>845201.9959189531</v>
+        <v>845201.9959189532</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>845201.9959189531</v>
+        <v>845201.995918953</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>845201.9959189531</v>
+        <v>845201.9959189532</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>845201.9959189531</v>
+        <v>845201.995918953</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>845201.9959189532</v>
+        <v>845201.995918953</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>845201.9959189531</v>
+        <v>845201.9959189529</v>
       </c>
     </row>
   </sheetData>
@@ -26316,28 +26316,28 @@
         <v>214164.910256968</v>
       </c>
       <c r="C2" t="n">
-        <v>259834.929234415</v>
+        <v>259834.9292344153</v>
       </c>
       <c r="D2" t="n">
         <v>321270.212019024</v>
       </c>
       <c r="E2" t="n">
+        <v>358046.9539194668</v>
+      </c>
+      <c r="F2" t="n">
         <v>358046.9539194667</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>358046.9539194666</v>
+      </c>
+      <c r="H2" t="n">
         <v>358046.9539194664</v>
       </c>
-      <c r="G2" t="n">
-        <v>358046.9539194664</v>
-      </c>
-      <c r="H2" t="n">
-        <v>358046.9539194665</v>
-      </c>
       <c r="I2" t="n">
+        <v>358046.9539194666</v>
+      </c>
+      <c r="J2" t="n">
         <v>358046.9539194667</v>
-      </c>
-      <c r="J2" t="n">
-        <v>358046.9539194666</v>
       </c>
       <c r="K2" t="n">
         <v>358046.9539194666</v>
@@ -26346,16 +26346,16 @@
         <v>358046.9539194666</v>
       </c>
       <c r="M2" t="n">
-        <v>358046.9539194664</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="N2" t="n">
-        <v>358046.9539194665</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="O2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="P2" t="n">
-        <v>358046.9539194668</v>
+        <v>358046.9539194666</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911928</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739482</v>
+        <v>176672.6241739491</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819094</v>
+        <v>223886.3093819083</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171905</v>
+        <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640761</v>
+        <v>41076.9815464078</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946863</v>
+        <v>54988.29121946844</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341475</v>
+        <v>47552.26579341491</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>1.513344614068046e-10</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14543.87419713279</v>
+        <v>14543.87419713278</v>
       </c>
       <c r="C4" t="n">
-        <v>16544.00937806853</v>
+        <v>16544.00937806854</v>
       </c>
       <c r="D4" t="n">
-        <v>19788.00270570973</v>
+        <v>19788.00270570976</v>
       </c>
       <c r="E4" t="n">
         <v>10380.34706710378</v>
@@ -26453,13 +26453,13 @@
         <v>10380.34706710378</v>
       </c>
       <c r="N4" t="n">
-        <v>10380.3470671038</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="O4" t="n">
         <v>10380.34706710378</v>
       </c>
       <c r="P4" t="n">
-        <v>10380.34706710377</v>
+        <v>10380.34706710378</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.871679231</v>
+        <v>75746.87167923109</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26487,7 +26487,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26511,7 +26511,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-553842.4629223753</v>
+        <v>-544547.5192542993</v>
       </c>
       <c r="C6" t="n">
-        <v>-17281.52837513438</v>
+        <v>-9943.871234663562</v>
       </c>
       <c r="D6" t="n">
-        <v>-20569.33523033161</v>
+        <v>-15864.61878062794</v>
       </c>
       <c r="E6" t="n">
-        <v>87811.09717571808</v>
+        <v>90939.66754397293</v>
       </c>
       <c r="F6" t="n">
-        <v>269884.0769929083</v>
+        <v>273012.6473611635</v>
       </c>
       <c r="G6" t="n">
-        <v>269884.0769929083</v>
+        <v>273012.6473611634</v>
       </c>
       <c r="H6" t="n">
-        <v>269884.0769929084</v>
+        <v>273012.6473611632</v>
       </c>
       <c r="I6" t="n">
-        <v>269884.0769929086</v>
+        <v>273012.6473611634</v>
       </c>
       <c r="J6" t="n">
-        <v>200884.9225737945</v>
+        <v>204013.4929420494</v>
       </c>
       <c r="K6" t="n">
-        <v>228807.0954465009</v>
+        <v>231935.6658147557</v>
       </c>
       <c r="L6" t="n">
-        <v>214895.7857734398</v>
+        <v>218024.356141695</v>
       </c>
       <c r="M6" t="n">
-        <v>222331.8111994936</v>
+        <v>225460.3815677486</v>
       </c>
       <c r="N6" t="n">
-        <v>269884.0769929086</v>
+        <v>273012.6473611634</v>
       </c>
       <c r="O6" t="n">
-        <v>269884.0769929083</v>
+        <v>273012.6473611636</v>
       </c>
       <c r="P6" t="n">
-        <v>269884.0769929085</v>
+        <v>273012.6473611633</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908046</v>
+        <v>751.4467899908054</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>423.317954891965</v>
+        <v>423.3179548919659</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213264</v>
+        <v>137.3917762213271</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267348</v>
+        <v>182.6181021267338</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904588</v>
+        <v>159.6040748904597</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080739</v>
+        <v>217.266877208073</v>
       </c>
       <c r="E4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904588</v>
+        <v>159.6040748904596</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080739</v>
+        <v>217.2668772080731</v>
       </c>
       <c r="M4" t="n">
         <v>190.816623302254</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904588</v>
+        <v>159.6040748904597</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080739</v>
+        <v>217.266877208073</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350879</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,22 +31199,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582787</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053484</v>
+        <v>3.020891618053487</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339025</v>
+        <v>30.93770628339028</v>
       </c>
       <c r="I5" t="n">
-        <v>116.462924105007</v>
+        <v>116.4629241050072</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677671</v>
+        <v>256.3943999677674</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599711</v>
+        <v>384.2687421599715</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159755</v>
+        <v>476.719354015976</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285342</v>
+        <v>530.4421353285347</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383287</v>
+        <v>539.0252436383292</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113093</v>
+        <v>508.9862526113099</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906138</v>
+        <v>434.4079907906143</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190733</v>
+        <v>326.2223097190737</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025523</v>
+        <v>189.7610831025525</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639384</v>
+        <v>68.83856774639391</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802913</v>
+        <v>13.22395305802915</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442786</v>
+        <v>0.2416713294442789</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546259</v>
+        <v>1.616319510546261</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395992</v>
+        <v>15.61024369395994</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328129</v>
+        <v>55.64959718328135</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433201</v>
+        <v>152.7067481433202</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499194</v>
+        <v>261.0001553499197</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876867</v>
+        <v>350.946918287687</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449885</v>
+        <v>409.5385005449889</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345729</v>
+        <v>420.3777660345733</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587847</v>
+        <v>384.5635284587851</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077326</v>
+        <v>308.6461353077329</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970979</v>
+        <v>206.3217676970982</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670739</v>
+        <v>100.353592067074</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633071</v>
+        <v>30.02242599633075</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807068</v>
+        <v>6.514901886807075</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043592</v>
+        <v>0.1063368099043593</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950631</v>
+        <v>1.355067981950633</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952471</v>
+        <v>12.04778623952472</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720626</v>
+        <v>40.75058985720631</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390962</v>
+        <v>95.80330632390972</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029915</v>
+        <v>157.4342619029916</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165511</v>
+        <v>201.4616525165514</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706794</v>
+        <v>212.4130655706796</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379545</v>
+        <v>207.3623576379547</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488038</v>
+        <v>191.532699848804</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170108</v>
+        <v>163.889313017011</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886115</v>
+        <v>113.4684652886116</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843473</v>
+        <v>60.92878398843479</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544872</v>
+        <v>23.61513928544874</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879968</v>
+        <v>5.789835922879974</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548906</v>
+        <v>0.07391279901548914</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,34 +31515,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31551,13 +31551,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32788,7 +32788,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33280,7 +33280,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33499,7 +33499,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33517,7 +33517,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33736,7 +33736,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563564</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>80.70129221722513</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015061</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649636</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34874,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496811</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108079</v>
+        <v>75.34849544108107</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149906</v>
+        <v>164.178891114991</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459883</v>
+        <v>240.9529390459888</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012615</v>
+        <v>300.095902101262</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417378</v>
+        <v>309.6121800417383</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896225</v>
+        <v>278.8880411896231</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353443</v>
+        <v>203.1749950353448</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446239</v>
+        <v>103.9166198446243</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>36.73204582566876</v>
+        <v>36.53628791123944</v>
       </c>
       <c r="K6" t="n">
-        <v>387.623953388139</v>
+        <v>387.6239533881393</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078125</v>
+        <v>212.3925385078128</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229702</v>
+        <v>267.4044666229706</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512396</v>
+        <v>289.03605395124</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143403</v>
+        <v>241.9672840143407</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934024</v>
+        <v>174.6717278934027</v>
       </c>
       <c r="Q6" t="n">
-        <v>66.33999361107641</v>
+        <v>66.33999361107664</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.1957579144308852</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207236849</v>
+        <v>2.444126207236948</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771086</v>
+        <v>135.1647700771088</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768673</v>
+        <v>229.0516777768675</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325199</v>
+        <v>251.9969425325202</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171831</v>
+        <v>251.4945300171833</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628435</v>
+        <v>216.1178277628437</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819043</v>
+        <v>161.1678722819045</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691711</v>
+        <v>27.30642203691723</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>108.4269819022252</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>640.584832100039</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>323.3401249335308</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977097</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36928,7 +36928,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37165,7 +37165,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
